--- a/public/templates/export_student_list_online.xlsx
+++ b/public/templates/export_student_list_online.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\js\nodejs\LMS_BE\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A87A9B41-3EE5-4088-9D6B-152C32DF9FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E688443-CA92-410C-9323-0A4B2BBD4749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{2A30D5C4-EF60-4A22-9725-B0FC0B09C753}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>STT</t>
   </si>
@@ -55,21 +55,6 @@
   </si>
   <si>
     <t>Điểm học phần</t>
-  </si>
-  <si>
-    <t>Điểm thi chương học</t>
-  </si>
-  <si>
-    <t>Tên chương 1</t>
-  </si>
-  <si>
-    <t>Tên chương 2</t>
-  </si>
-  <si>
-    <t>Tên chương 3</t>
-  </si>
-  <si>
-    <t>Tên chương 4</t>
   </si>
 </sst>
 </file>
@@ -101,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -124,20 +109,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C9B1D1-16F2-4BC5-B3B6-B63722BFC73D}">
-  <dimension ref="A4:K5"/>
+  <dimension ref="A4:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,66 +463,48 @@
     <col min="5" max="5" width="16.77734375" customWidth="1"/>
     <col min="6" max="6" width="17.77734375" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="19.21875" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -536,5 +513,6 @@
     <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>